--- a/output/item/무선마우스/2022-01-12_무선마우스.xlsx
+++ b/output/item/무선마우스/2022-01-12_무선마우스.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33290</t>
+          <t>33200</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>106710</t>
+          <t>106700</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>100900</t>
+          <t>100890</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25900</t>
+          <t>25760</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1619,22 +1619,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>로지텍G G903 HERO WIRELESS</t>
+          <t>로지텍 M331 무소음</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19865527926</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10502482718</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1986552/19865527926.20211210122427.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1050248/10502482718.20161018172323.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>104160</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>로지텍G</t>
+          <t>로지텍</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1685,22 +1685,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>로지텍 M331 무소음</t>
+          <t>로지텍G G903 HERO WIRELESS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10502482718</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19865527926</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1050248/10502482718.20161018172323.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1986552/19865527926.20211210122427.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>104100</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>로지텍</t>
+          <t>로지텍G</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>74460</t>
+          <t>74450</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76280</t>
+          <t>76180</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>29600</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>27800</t>
+          <t>28650</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>156710</t>
+          <t>156610</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>110490</t>
+          <t>127130</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -3533,22 +3533,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>로지텍G G502 LIGHTSPEED WIRELESS</t>
+          <t>로지텍 M720 Triathlon</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19490521018</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10404830934</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1949052/19490521018.20200117182236.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1040483/10404830934.20160930094842.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>91440</t>
+          <t>43900</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>로지텍G</t>
+          <t>로지텍</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3599,22 +3599,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>로지텍 M720 Triathlon</t>
+          <t>로지텍G G502 LIGHTSPEED WIRELESS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10404830934</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19490521018</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1040483/10404830934.20160930094842.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1949052/19490521018.20200117182236.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>43890</t>
+          <t>91390</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>로지텍</t>
+          <t>로지텍G</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3995,22 +3995,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>필립스 SPK7614 버티컬 무선 마우스</t>
+          <t>앱코 버티컬 마우스 WEM300</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24182388539</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22944035490</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2418238/24182388539.20200917122604.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2294403/22944035490.20200523202235.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>39100</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -4026,12 +4026,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4061,22 +4061,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>앱코 버티컬 마우스 WEM300</t>
+          <t>필립스 SPK7614 버티컬 무선 마우스</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22944035490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24182388539</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2294403/22944035490.20200523202235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2418238/24182388539.20200917122604.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>39100</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>39380</t>
+          <t>39310</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>앱코 ABKO WM350 저소음 무선 블루투스 마우스</t>
+          <t>퓨전에프앤씨 아이노트 M33RB</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24740321522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29632053618</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2474032/24740321522.20201106145839.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2963205/29632053618.20211111123924.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4744,12 +4744,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>아이노트</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>퓨전에프앤씨</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4779,22 +4779,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>퓨전에프앤씨 아이노트 M33RB</t>
+          <t>앱코 ABKO WM350 저소음 무선 블루투스 마우스</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29632053618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24740321522</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2963205/29632053618.20211111123924.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2474032/24740321522.20201106145839.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4810,12 +4810,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>아이노트</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>퓨전에프앤씨</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>9500</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>8800</t>
+          <t>8780</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5505,37 +5505,45 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>글로리어스 오딘 마우스 MODEL O Wireless / 초경량 RGB 모델O 무선</t>
+          <t>로지텍 POP MOUSE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82874511791</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29920748618</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287451/82874511791.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2992074/29920748618.20211203100100.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>109000</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>와이피게이밍기어</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>로지텍</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>로지텍</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5563,45 +5571,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>로지텍 MX Anywhere 2S</t>
+          <t>글로리어스 오딘 마우스 MODEL O Wireless / 초경량 RGB 모델O 무선</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11678585273</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82874511791</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1167858/11678585273.20170609135619.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287451/82874511791.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>63710</t>
+          <t>109000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>와이피게이밍기어</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>로지텍</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>로지텍</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5629,22 +5629,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>앱코 WM400 무선 마우스</t>
+          <t>로지텍 MX Anywhere 2S</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20632399583</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11678585273</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2063239/20632399583.20191231195343.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1167858/11678585273.20170609135619.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5300</t>
+          <t>63690</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5660,12 +5660,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>로지텍</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>로지텍</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5695,22 +5695,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>필립스 SPK7604 멀티페어링 무선 마우스</t>
+          <t>앱코 WM400 무선 마우스</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24183101524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20632399583</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2418310/24183101524.20200917121806.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2063239/20632399583.20191231195343.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>5300</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5726,12 +5726,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5827,22 +5827,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>맥스틸 GM-BWN200L</t>
+          <t>RAZER Basilisk Ultimate</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29728843618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21534569951</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2972884/29728843618.20211118001439.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2153456/21534569951.20191216133158.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>13500</t>
+          <t>118600</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5858,12 +5858,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>맥스틸</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>맥스틸</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5893,22 +5893,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RAZER Basilisk Ultimate</t>
+          <t>필립스 SPK7604 멀티페어링 무선 마우스</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21534569951</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24183101524</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2153456/21534569951.20191216133158.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2418310/24183101524.20200917121806.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>118650</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5959,22 +5959,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>COX CM91W</t>
+          <t>맥스틸 GM-BWN200L</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29918559618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29728843618</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2991855/29918559618.20211202084445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2972884/29728843618.20211118001439.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>13500</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5990,12 +5990,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>COX</t>
+          <t>맥스틸</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>COX</t>
+          <t>맥스틸</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6091,22 +6091,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>로지텍 MX VERTICAL</t>
+          <t>COX CM91W</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28403843555</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29918559618</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2840384/28403843555.20210812124707.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2991855/29918559618.20211202084445.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>69480</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -6122,12 +6122,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>로지텍</t>
+          <t>COX</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>로지텍</t>
+          <t>COX</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6351,22 +6351,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>한성컴퓨터 GTune GM100W</t>
+          <t>로지텍 MX VERTICAL</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12886870929</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28403843555</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1288687/12886870929.20210928095734.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2840384/28403843555.20210812124707.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>69480</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6382,12 +6382,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>로지텍</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>로지텍</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6417,22 +6417,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>앱코 WM450</t>
+          <t>한성컴퓨터 GTune GM100W</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24740427522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12886870929</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2474042/24740427522.20201106151002.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1288687/12886870929.20210928095734.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>15400</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6448,12 +6448,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6483,22 +6483,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>아이리버 EQwear-EV1</t>
+          <t>앱코 WM450</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15471020456</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24740427522</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1547102/15471020456.20211201140415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2474042/24740427522.20201106151002.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>25890</t>
+          <t>15400</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6514,12 +6514,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>아이리버</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>아이리버</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6549,22 +6549,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>퓨전에프앤씨 아이노트 FS-528VM</t>
+          <t>아이리버 EQwear-EV1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916426873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15471020456</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291642/12916426873.20211104161300.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1547102/15471020456.20211201140415.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>25890</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6580,12 +6580,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>아이노트</t>
+          <t>아이리버</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>퓨전에프앤씨</t>
+          <t>아이리버</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6615,22 +6615,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>아이리버 EQWEAR-MVM9</t>
+          <t>퓨전에프앤씨 아이노트 FS-528VM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23750509490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916426873</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2375050/23750509490.20211124173552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291642/12916426873.20211104161300.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6646,12 +6646,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>아이리버</t>
+          <t>아이노트</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>아이리버</t>
+          <t>퓨전에프앤씨</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6681,22 +6681,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>다얼유 LM108 PRO 버티컬 인체공학마우스</t>
+          <t>아이리버 EQWEAR-MVM9</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22963825490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23750509490</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2296382/22963825490.20220105110403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2375050/23750509490.20211124173552.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>31900</t>
+          <t>29800</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6712,12 +6712,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>다얼유</t>
+          <t>아이리버</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>다얼유</t>
+          <t>아이리버</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6747,22 +6747,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>로지텍 POP MOUSE</t>
+          <t>다얼유 LM108 PRO 버티컬 인체공학마우스</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29920748618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22963825490</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2992074/29920748618.20211203100100.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2296382/22963825490.20220105110403.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>31900</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6778,12 +6778,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>로지텍</t>
+          <t>다얼유</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>로지텍</t>
+          <t>다얼유</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6813,22 +6813,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>로지텍G PRO 무선 게이밍 마우스 (LoL 컬렉션)</t>
+          <t>TG삼보 TM615G HEALING 인체공학 버티컬 무선마우스</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29921553618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12708426248</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2992155/29921553618.20211202114305.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1270842/12708426248.20210609172632.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>28800</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6844,12 +6844,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>로지텍G</t>
+          <t>TG삼보</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>로지텍</t>
+          <t>TG삼보</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6879,22 +6879,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TG삼보 TM615G HEALING 인체공학 버티컬 무선마우스</t>
+          <t>ROCCAT KONE PRO AIR RGB</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12708426248</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27888756522</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1270842/12708426248.20210609172632.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2788875/27888756522.20211223121316.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>28800</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6910,12 +6910,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>TG삼보</t>
+          <t>ROCCAT</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>TG삼보</t>
+          <t>ROCCAT</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6945,22 +6945,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ROCCAT KONE PRO AIR RGB</t>
+          <t>로지텍G PRO 무선 게이밍 마우스 (LoL 컬렉션)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27888756522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29921553618</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2788875/27888756522.20211223121316.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2992155/29921553618.20211202114305.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>ROCCAT</t>
+          <t>로지텍G</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>ROCCAT</t>
+          <t>로지텍</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
